--- a/LubanConfig/Datas/__beans__.xlsx
+++ b/LubanConfig/Datas/__beans__.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\luban_examples-main\LuckConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D1C69F-7057-415E-ABD9-FBB7B7F1FBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D092FE8E-5815-468F-AD2C-B51ECCF65FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -169,46 +169,14 @@
     <t>高度</t>
   </si>
   <si>
-    <t>symbol.SpecRule</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>condition</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ratio</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>触发概率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>条件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>only_once</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>是否只触发一次</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>actions</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>symbol.SpecRuleAction</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -253,7 +221,59 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>(list#sep=;),symbol.SpecRuleAction</t>
+    <t>id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>has</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>in_parent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>alive</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否存在</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否必须在父根中</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否存活</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小出现时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大出现时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>config.FlagCondition</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +379,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -642,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -735,21 +755,21 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -757,265 +777,290 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>65</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
-      <c r="F11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F14" t="s">
         <v>20</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H14" t="s">
         <v>21</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H14" t="s">
-        <v>26</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
         <v>33</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I19" t="s">
         <v>24</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H18" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
         <v>34</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I20" t="s">
         <v>29</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K20" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
         <v>48</v>
       </c>
     </row>

--- a/LubanConfig/Datas/__beans__.xlsx
+++ b/LubanConfig/Datas/__beans__.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\DevelopFile\UnityProject\LifeSocialTree\LubanConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D092FE8E-5815-468F-AD2C-B51ECCF65FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4CFE4D2-8772-4C18-B0AB-95F009FDA942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
   <si>
     <t>##var</t>
   </si>
@@ -241,14 +241,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>min_time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_time</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -265,15 +257,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>最小出现时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大出现时间</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>config.FlagCondition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>has_time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>存活长度</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -662,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -755,7 +747,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -783,7 +775,7 @@
         <v>50</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -797,7 +789,7 @@
         <v>50</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -808,259 +800,248 @@
         <v>50</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>74</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" s="2"/>
+      <c r="B10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>49</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>55</v>
+      <c r="B13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" t="s">
         <v>18</v>
       </c>
-      <c r="K16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" t="s">
-        <v>29</v>
-      </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="H20" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
-      <c r="K20" t="s">
-        <v>27</v>
-      </c>
+      <c r="B20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="3"/>
+        <v>36</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="E21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3" t="s">
         <v>48</v>
       </c>
     </row>
